--- a/src/数据.xlsx
+++ b/src/数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\hanchaoshuai\hanchaoshuai_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\hanchaoshuai\hanchaoshuai_new\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4400525-A524-4785-B0F1-5296DE976BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF25C54-50FC-4223-AA11-C27846B53FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5142,9 +5142,6 @@
     <t>（20，257）</t>
   </si>
   <si>
-    <t>（-627，796）</t>
-  </si>
-  <si>
     <t>（-65，185）</t>
   </si>
   <si>
@@ -5250,6 +5247,10 @@
   </si>
   <si>
     <t>坐标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（-627，796）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5383,22 +5384,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5432,6 +5421,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5714,1205 +5715,1205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15" style="18" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="14" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="14" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="16" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="16" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="16" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>193</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>199</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>201</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>203</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D110" s="14"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>207</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D111" s="14"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>209</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>210</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>214</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D115" s="14"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D116" s="14"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>218</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D117" s="14"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>220</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>222</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D119" s="14"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>224</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>226</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>228</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>94</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>229</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B124" s="18" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6920,7 +6921,7 @@
       <c r="A125" t="s">
         <v>231</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="18" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6928,7 +6929,7 @@
       <c r="A126" t="s">
         <v>233</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="18" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6936,40 +6937,40 @@
       <c r="A127" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>267</v>
+      <c r="B127" s="18" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>268</v>
+      <c r="B128" s="18" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>269</v>
+      <c r="B129" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>234</v>
       </c>
-      <c r="B130" s="22" t="s">
-        <v>270</v>
+      <c r="B130" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>236</v>
       </c>
-      <c r="B131" s="22" t="s">
-        <v>271</v>
+      <c r="B131" s="18" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6995,18 +6996,18 @@
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24">
         <v>81</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="7">
         <v>102</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -7016,18 +7017,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>82</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -7037,18 +7038,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
         <v>83</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>104</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -7058,18 +7059,18 @@
         <v>-91262</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>84</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>105</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -7079,18 +7080,18 @@
         <v>-41260</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>85</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>106</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -7100,18 +7101,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>86</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -7121,18 +7122,18 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>87</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>108</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -7142,18 +7143,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>88</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>109</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -7163,18 +7164,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>89</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>110</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -7184,18 +7185,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>90</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>111</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -7205,18 +7206,18 @@
         <v>-23189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>91</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>112</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -7226,18 +7227,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>92</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>113</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -7247,18 +7248,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>93</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>114</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -7268,18 +7269,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>94</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -7289,18 +7290,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>95</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>116</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -7310,18 +7311,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>96</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>117</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -7331,18 +7332,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>97</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="3">
         <v>-14339</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>118</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -7352,18 +7353,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>98</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="3">
         <v>-9383</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>119</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7373,18 +7374,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>99</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="3">
         <v>-5485</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>120</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -7398,14 +7399,14 @@
       <c r="A20" s="5">
         <v>100</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="3">
         <v>-3530</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>121</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -7415,18 +7416,18 @@
         <v>-151287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>101</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="3">
         <v>-2569</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>122</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -7438,6 +7439,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -7447,18 +7460,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/数据.xlsx
+++ b/src/数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\hanchaoshuai\hanchaoshuai_new\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF25C54-50FC-4223-AA11-C27846B53FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2701555-AC7C-420E-B3BB-9C1288D0EDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5258,7 +5258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5292,6 +5292,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5364,7 +5371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -5433,6 +5440,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5713,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6972,6 +6980,9 @@
       <c r="B131" s="18" t="s">
         <v>270</v>
       </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7439,6 +7450,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -7451,15 +7471,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
